--- a/_posts/recommendation/IMF_SNS结果.xlsx
+++ b/_posts/recommendation/IMF_SNS结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B29FFEA-F4C8-46FF-A58F-38E580D00FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA52C7B0-F748-4D54-8A6F-118EE3874DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -771,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -781,16 +780,19 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1451,7 +1453,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1494,13 +1496,13 @@
         <v>20</v>
       </c>
       <c r="D2" s="8">
-        <v>68179</v>
+        <v>124736</v>
       </c>
       <c r="E2" s="8">
-        <v>180936</v>
+        <v>425964</v>
       </c>
       <c r="F2" s="8">
-        <v>2.6538398920488699</v>
+        <v>3.4149250416880399</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1514,13 +1516,13 @@
         <v>21</v>
       </c>
       <c r="D3" s="8">
-        <v>68197</v>
+        <v>124721</v>
       </c>
       <c r="E3" s="8">
-        <v>184551</v>
+        <v>442339</v>
       </c>
       <c r="F3" s="8">
-        <v>2.7061400061586198</v>
+        <v>3.5466247865235201</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1534,13 +1536,13 @@
         <v>22</v>
       </c>
       <c r="D4" s="8">
-        <v>68263</v>
+        <v>125084</v>
       </c>
       <c r="E4" s="8">
-        <v>201707</v>
+        <v>454641</v>
       </c>
       <c r="F4" s="8">
-        <v>2.9548471353441799</v>
+        <v>3.6346870103290501</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1554,13 +1556,13 @@
         <v>20</v>
       </c>
       <c r="D5" s="8">
-        <v>135233</v>
+        <v>137625</v>
       </c>
       <c r="E5" s="8">
-        <v>492011</v>
+        <v>513954</v>
       </c>
       <c r="F5" s="8">
-        <v>3.6382431063423799</v>
+        <v>3.73445435059037</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1574,13 +1576,13 @@
         <v>21</v>
       </c>
       <c r="D6" s="8">
-        <v>135276</v>
+        <v>137742</v>
       </c>
       <c r="E6" s="8">
-        <v>519457</v>
+        <v>534652</v>
       </c>
       <c r="F6" s="8">
-        <v>3.8399756054288998</v>
+        <v>3.8815446995106702</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1594,13 +1596,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="8">
-        <v>136039</v>
+        <v>138467</v>
       </c>
       <c r="E7" s="8">
-        <v>517005</v>
+        <v>527804</v>
       </c>
       <c r="F7" s="8">
-        <v>3.8004151750600901</v>
+        <v>3.8117676413874699</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1614,13 +1616,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="8">
-        <v>133818</v>
+        <v>84935</v>
       </c>
       <c r="E8" s="8">
-        <v>459292</v>
+        <v>190486</v>
       </c>
       <c r="F8" s="8">
-        <v>3.4322164432288602</v>
+        <v>2.24272302348855</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1634,13 +1636,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="8">
-        <v>133893</v>
+        <v>85032</v>
       </c>
       <c r="E9" s="8">
-        <v>482638</v>
+        <v>215037</v>
       </c>
       <c r="F9" s="8">
-        <v>3.6046573009791398</v>
+        <v>2.5288981795088898</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1654,61 +1656,61 @@
         <v>22</v>
       </c>
       <c r="D10" s="8">
-        <v>133225</v>
+        <v>84241</v>
       </c>
       <c r="E10" s="8">
-        <v>474389</v>
+        <v>211499</v>
       </c>
       <c r="F10" s="8">
-        <v>3.56080900731844</v>
+        <v>2.51064232380907</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5">
-        <f>(F2+F5+F8)/233</f>
-        <v>4.1735190736566993E-2</v>
+      <c r="D13" s="9">
+        <f>SUM(E2,E5,E8)/SUM(D2,D5,D8)</f>
+        <v>3.2548719248134157</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:D15" si="0">(F3+F6+F9)/233</f>
-        <v>4.3565548980972785E-2</v>
+      <c r="D14" s="9">
+        <f t="shared" ref="D14:D15" si="0">SUM(E3,E6,E9)/SUM(D3,D6,D9)</f>
+        <v>3.4303457603706526</v>
       </c>
       <c r="E14" s="3">
         <f>D14/D13-1</f>
-        <v>4.3856472490063192E-2</v>
+        <v>5.3911133712978954E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>4.4274984196234803E-2</v>
+        <v>3.4329254266918157</v>
       </c>
       <c r="E15" s="4">
         <f>D15/D13-1</f>
-        <v>6.0854962319425221E-2</v>
+        <v>5.4703689113238196E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
